--- a/biology/Botanique/Pavetta_camerounensis/Pavetta_camerounensis.xlsx
+++ b/biology/Botanique/Pavetta_camerounensis/Pavetta_camerounensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavetta camerounensis S.D. Manning[2] est une espèce de plantes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavetta camerounensis S.D. Manning est une espèce de plantes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, elle est surtout présente dans la région du Sud, celle du Centre et celle du Littoral[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, elle est surtout présente dans la région du Sud, celle du Centre et celle du Littoral.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 septembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 septembre 2017) :
 sous-espèce Pavetta camerounensis subsp. brevirama
 sous-espèce Pavetta camerounensis subsp. camerounensis
-Selon Tropicos                                           (30 septembre 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Pavetta camerounensis subsp. brevirama S.D. Manning
 sous-espèce Pavetta camerounensis subsp. camerounensis</t>
         </is>
